--- a/bh3/560250347441736418_2021-08-18_18-17-29.xlsx
+++ b/bh3/560250347441736418_2021-08-18_18-17-29.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>5197035898</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-08-20 18:49:29</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44428.78436342593</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -602,10 +616,8 @@
           <t>5197035898</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-08-20 16:45:32</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44428.69828703703</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -673,10 +685,8 @@
           <t>5197035898</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-08-20 16:38:10</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44428.6931712963</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -744,10 +754,8 @@
           <t>5197035898</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-08-20 16:26:17</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44428.68491898148</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -807,10 +815,8 @@
           <t>5197035898</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-08-20 16:18:09</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44428.67927083333</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -878,10 +884,8 @@
           <t>5197035898</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-08-20 12:14:53</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44428.51033564815</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -941,10 +945,8 @@
           <t>5197035898</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-08-20 10:30:11</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44428.43762731482</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1012,10 +1014,8 @@
           <t>5197035898</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-08-20 10:09:54</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44428.42354166666</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1075,10 +1075,8 @@
           <t>5197035898</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-08-19 21:24:19</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44427.89188657407</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1146,10 +1144,8 @@
           <t>5197035898</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-08-19 21:16:22</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44427.88636574074</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1218,10 +1214,8 @@
           <t>5197035898</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-08-19 20:59:57</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44427.87496527778</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1293,10 +1287,8 @@
           <t>5193553947</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-08-19 17:50:07</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44427.74313657408</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1356,10 +1348,8 @@
           <t>5197035898</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-08-19 17:45:21</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44427.73982638889</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1427,10 +1417,8 @@
           <t>5201998079</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-08-19 17:41:04</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44427.73685185185</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1498,10 +1486,8 @@
           <t>5197035898</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-08-19 17:40:14</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44427.73627314815</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1569,10 +1555,8 @@
           <t>5197035898</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-08-19 17:19:10</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44427.72164351852</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1632,10 +1616,8 @@
           <t>5197035898</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-08-19 17:18:17</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44427.72103009259</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1695,10 +1677,8 @@
           <t>5197035898</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:54:21</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44427.57940972222</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1766,10 +1746,8 @@
           <t>5197035898</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:51:42</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44427.57756944445</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1837,10 +1815,8 @@
           <t>5197035898</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-08-19 13:48:07</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44427.57508101852</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1908,10 +1884,8 @@
           <t>5195756483</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:40:42</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44427.52826388889</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1975,10 +1949,8 @@
           <t>5197035898</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-08-19 11:52:11</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44427.49457175926</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2038,10 +2010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-08-19 10:57:27</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44427.4565625</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -2114,10 +2084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-08-19 10:56:51</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44427.45614583333</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2186,10 +2154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-08-19 10:56:10</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44427.45567129629</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2265,10 +2231,8 @@
           <t>5193553947</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-08-19 10:39:36</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44427.44416666667</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2336,10 +2300,8 @@
           <t>5198436160</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-08-19 10:15:42</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44427.42756944444</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2407,10 +2369,8 @@
           <t>5197035898</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-08-19 10:13:51</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44427.42628472222</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2478,10 +2438,8 @@
           <t>5197035898</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-08-19 10:03:06</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44427.41881944444</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2541,10 +2499,8 @@
           <t>5197035898</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-08-19 10:02:06</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44427.418125</v>
       </c>
       <c r="I31" t="n">
         <v>2</v>
@@ -2604,10 +2560,8 @@
           <t>5198327933</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-08-19 10:00:48</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44427.41722222222</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2683,10 +2637,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-08-19 09:50:52</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44427.41032407407</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -2750,10 +2702,8 @@
           <t>5198016536</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-08-19 09:36:37</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44427.40042824074</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2831,10 +2781,8 @@
           <t>5198016536</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-08-19 09:25:33</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44427.39274305556</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2910,10 +2858,8 @@
           <t>5197035898</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-08-19 09:19:05</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44427.38825231481</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -2981,10 +2927,8 @@
           <t>5198018239</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-08-19 09:11:39</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44427.38309027778</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3062,10 +3006,8 @@
           <t>5198016536</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-08-19 09:10:44</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44427.38245370371</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3143,10 +3085,8 @@
           <t>5197868486</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-08-19 08:43:38</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44427.36363425926</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3214,10 +3154,8 @@
           <t>5195040943</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-08-19 08:42:13</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44427.36265046296</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3285,10 +3223,8 @@
           <t>5197723592</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-08-19 08:12:45</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44427.3421875</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3356,10 +3292,8 @@
           <t>5197730921</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-08-19 08:12:32</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44427.34203703704</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3427,10 +3361,8 @@
           <t>5197726360</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-08-19 08:12:20</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44427.34189814814</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3498,10 +3430,8 @@
           <t>5197720464</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-08-19 08:10:38</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44427.34071759259</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3569,10 +3499,8 @@
           <t>5197031317</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-08-19 07:36:38</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44427.31710648148</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -3632,10 +3560,8 @@
           <t>5197035898</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-08-19 07:35:43</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44427.3164699074</v>
       </c>
       <c r="I46" t="n">
         <v>8</v>
@@ -3695,10 +3621,8 @@
           <t>5197581919</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-08-19 07:33:23</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44427.31484953704</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3758,10 +3682,8 @@
           <t>5197569552</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-08-19 07:31:08</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44427.31328703704</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3821,10 +3743,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-08-19 07:27:12</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44427.31055555555</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -3900,10 +3820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-08-19 07:11:05</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44427.29936342593</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -3967,10 +3885,8 @@
           <t>5197228707</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-08-19 03:39:35</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44427.15248842593</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4038,10 +3954,8 @@
           <t>5197111278</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-08-19 02:40:08</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44427.1112037037</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4105,10 +4019,8 @@
           <t>5197101464</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-08-19 02:35:56</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44427.10828703704</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4184,10 +4096,8 @@
           <t>5197052255</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-08-19 02:19:51</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44427.09711805556</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4259,10 +4169,8 @@
           <t>5197033726</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-08-19 02:14:57</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44427.09371527778</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4330,10 +4238,8 @@
           <t>5197035898</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-08-19 02:13:45</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44427.09288194445</v>
       </c>
       <c r="I56" t="n">
         <v>2</v>
@@ -4401,10 +4307,8 @@
           <t>5197029174</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-08-19 02:13:04</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44427.09240740741</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4472,10 +4376,8 @@
           <t>5197031317</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-08-19 02:12:35</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44427.09207175926</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4543,10 +4445,8 @@
           <t>5196985098</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-08-19 01:58:27</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44427.08225694444</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4614,10 +4514,8 @@
           <t>5196968492</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-08-19 01:55:01</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44427.07987268519</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -4682,10 +4580,8 @@
           <t>5194749335</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-08-19 00:45:22</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44427.03150462963</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4762,10 +4658,8 @@
           <t>5193787456</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-08-19 00:40:58</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44427.02844907407</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4829,10 +4723,8 @@
           <t>5193746495</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-08-19 00:40:10</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44427.02789351852</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -4896,10 +4788,8 @@
           <t>5194749335</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-08-19 00:37:30</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44427.02604166666</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -4971,10 +4861,8 @@
           <t>5194820223</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-08-19 00:37:25</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44427.02598379629</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -5051,10 +4939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-08-19 00:24:49</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44427.01723379629</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -5122,10 +5008,8 @@
           <t>5194749335</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-08-19 00:23:34</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44427.01636574074</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5202,10 +5086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-08-19 00:17:24</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44427.01208333333</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -5273,10 +5155,8 @@
           <t>5193139476</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-08-19 00:17:04</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44427.01185185185</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5344,10 +5224,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-08-19 00:12:20</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44427.00856481482</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5415,10 +5293,8 @@
           <t>5196354734</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-08-19 00:09:19</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44427.00646990741</v>
       </c>
       <c r="I71" t="n">
         <v>2</v>
@@ -5486,10 +5362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-08-19 00:06:33</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44427.00454861111</v>
       </c>
       <c r="I72" t="n">
         <v>2</v>
@@ -5553,10 +5427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-08-19 00:06:26</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44427.00446759259</v>
       </c>
       <c r="I73" t="n">
         <v>3</v>
@@ -5616,10 +5488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-08-19 00:06:14</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44427.0043287037</v>
       </c>
       <c r="I74" t="n">
         <v>2</v>
@@ -5679,10 +5549,8 @@
           <t>5194749335</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-08-19 00:01:19</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44427.00091435185</v>
       </c>
       <c r="I75" t="n">
         <v>2</v>
@@ -5754,10 +5622,8 @@
           <t>5195710548</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-08-18 23:58:24</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44426.99888888889</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5825,10 +5691,8 @@
           <t>5196045636</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-08-18 23:32:01</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44426.98056712963</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -5896,10 +5760,8 @@
           <t>5193916893</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-08-18 23:27:15</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44426.97725694445</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -5977,10 +5839,8 @@
           <t>5193141030</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-08-18 23:24:14</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44426.97516203704</v>
       </c>
       <c r="I79" t="n">
         <v>3</v>
@@ -6048,10 +5908,8 @@
           <t>5195118349</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-08-18 23:02:44</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44426.96023148148</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6128,10 +5986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-08-18 23:02:28</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44426.9600462963</v>
       </c>
       <c r="I81" t="n">
         <v>2</v>
@@ -6207,10 +6063,8 @@
           <t>5195756483</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-08-18 23:01:27</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44426.95934027778</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6284,10 +6138,8 @@
           <t>5194749335</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-08-18 23:00:35</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44426.95873842593</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6364,10 +6216,8 @@
           <t>5195703675</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-08-18 22:57:13</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44426.95640046296</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6427,10 +6277,8 @@
           <t>5193169947</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-08-18 22:56:57</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44426.95621527778</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6494,10 +6342,8 @@
           <t>5195710548</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-08-18 22:56:27</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44426.95586805556</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6569,10 +6415,8 @@
           <t>5195676471</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-08-18 22:53:36</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44426.95388888889</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6644,10 +6488,8 @@
           <t>5195668334</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-08-18 22:52:53</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44426.9533912037</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6719,10 +6561,8 @@
           <t>5195662193</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-08-18 22:52:16</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44426.95296296296</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6791,10 +6631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-08-18 22:51:35</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44426.95248842592</v>
       </c>
       <c r="I90" t="n">
         <v>2</v>
@@ -6866,10 +6704,8 @@
           <t>5195040943</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-08-18 22:51:08</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44426.95217592592</v>
       </c>
       <c r="I91" t="n">
         <v>3</v>
@@ -6938,10 +6774,8 @@
           <t>5195562866</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-08-18 22:41:55</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44426.94577546296</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7017,10 +6851,8 @@
           <t>5195550420</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-08-18 22:40:40</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44426.94490740741</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7088,10 +6920,8 @@
           <t>5193916893</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-08-18 22:26:33</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44426.93510416667</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7155,10 +6985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-08-18 22:26:21</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44426.93496527777</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -7226,10 +7054,8 @@
           <t>5193332709</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-08-18 22:19:31</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44426.93021990741</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7293,10 +7119,8 @@
           <t>5195316509</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-08-18 22:17:22</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44426.92872685185</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7372,10 +7196,8 @@
           <t>5193404275</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-08-18 22:02:42</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44426.91854166667</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7452,10 +7274,8 @@
           <t>5195118349</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-08-18 21:57:36</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44426.915</v>
       </c>
       <c r="I99" t="n">
         <v>5</v>
@@ -7531,10 +7351,8 @@
           <t>5195112047</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-08-18 21:56:00</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44426.91388888889</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7602,10 +7420,8 @@
           <t>5195097539</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-08-18 21:54:38</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44426.91293981481</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7681,10 +7497,8 @@
           <t>5195037833</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-08-18 21:48:49</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44426.90890046296</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7756,10 +7570,8 @@
           <t>5195040943</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-08-18 21:48:24</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44426.90861111111</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -7823,10 +7635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-08-18 21:35:53</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44426.89991898148</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -7894,10 +7704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-08-18 21:33:17</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44426.89811342592</v>
       </c>
       <c r="I105" t="n">
         <v>4</v>
@@ -7975,10 +7783,8 @@
           <t>5193150875</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-08-18 21:29:17</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44426.89533564815</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -8050,10 +7856,8 @@
           <t>5193150875</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-08-18 21:24:00</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44426.89166666667</v>
       </c>
       <c r="I107" t="n">
         <v>2</v>
@@ -8125,10 +7929,8 @@
           <t>5194820223</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-08-18 21:23:48</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44426.89152777778</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8196,10 +7998,8 @@
           <t>5194802373</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-08-18 21:22:39</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44426.89072916667</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8267,10 +8067,8 @@
           <t>5194793529</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-08-18 21:21:28</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44426.88990740741</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8342,10 +8140,8 @@
           <t>5194765862</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-08-18 21:18:34</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44426.88789351852</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8417,10 +8213,8 @@
           <t>5194749335</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-08-18 21:17:09</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44426.88690972222</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8492,10 +8286,8 @@
           <t>5193546881</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-08-18 21:14:30</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44426.88506944444</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8571,10 +8363,8 @@
           <t>5194730611</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-08-18 21:14:27</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44426.88503472223</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8646,10 +8436,8 @@
           <t>5193546881</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-08-18 21:12:38</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44426.88377314815</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8721,10 +8509,8 @@
           <t>5194688057</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-08-18 21:10:35</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44426.88234953704</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8796,10 +8582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-08-18 21:02:08</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44426.87648148148</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -8867,10 +8651,8 @@
           <t>5193546881</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-08-18 21:01:09</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44426.87579861111</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -8930,10 +8712,8 @@
           <t>5193230491</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:58:43</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44426.8741087963</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -9005,10 +8785,8 @@
           <t>5194522807</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:51:57</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44426.86940972223</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -9080,10 +8858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:51:30</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44426.86909722222</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -9151,10 +8927,8 @@
           <t>5193852396</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:49:53</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44426.86797453704</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9230,10 +9004,8 @@
           <t>5194009157</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:48:09</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44426.86677083333</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9297,10 +9069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:48:03</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44426.86670138889</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9368,10 +9138,8 @@
           <t>5194244928</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:47:49</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44426.86653935185</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9435,10 +9203,8 @@
           <t>5194327835</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:47:44</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44426.86648148148</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9502,10 +9268,8 @@
           <t>5193853250</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:47:33</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44426.86635416667</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9569,10 +9333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:40:41</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44426.86158564815</v>
       </c>
       <c r="I128" t="n">
         <v>3</v>
@@ -9640,10 +9402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:39:08</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44426.86050925926</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -9719,10 +9479,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:33:00</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44426.85625</v>
       </c>
       <c r="I130" t="n">
         <v>2</v>
@@ -9786,10 +9544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:31:09</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44426.85496527778</v>
       </c>
       <c r="I131" t="n">
         <v>5</v>
@@ -9853,10 +9609,8 @@
           <t>5194327835</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:29:47</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44426.8540162037</v>
       </c>
       <c r="I132" t="n">
         <v>1</v>
@@ -9928,10 +9682,8 @@
           <t>5194322918</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:29:35</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44426.85387731482</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10000,10 +9752,8 @@
           <t>5194322440</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:29:25</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44426.85376157407</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10075,10 +9825,8 @@
           <t>5194322260</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:29:22</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44426.85372685185</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10150,10 +9898,8 @@
           <t>5194313699</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:28:29</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44426.85311342592</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10221,10 +9967,8 @@
           <t>5193546881</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:28:14</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44426.85293981482</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10292,10 +10036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:28:00</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44426.85277777778</v>
       </c>
       <c r="I138" t="n">
         <v>2</v>
@@ -10356,10 +10098,8 @@
           <t>5193332709</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:25:34</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44426.85108796296</v>
       </c>
       <c r="I139" t="n">
         <v>6</v>
@@ -10431,10 +10171,8 @@
           <t>5194244928</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:21:02</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44426.84793981481</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10499,10 +10237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:17:48</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44426.84569444445</v>
       </c>
       <c r="I141" t="n">
         <v>11</v>
@@ -10579,10 +10315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:14:38</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44426.84349537037</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10646,10 +10380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:13:19</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44426.84258101852</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
@@ -10725,10 +10457,8 @@
           <t>5193105607</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:07:58</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44426.83886574074</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10796,10 +10526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:06:08</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44426.83759259259</v>
       </c>
       <c r="I145" t="n">
         <v>23</v>
@@ -10871,10 +10599,8 @@
           <t>5193852396</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:03:15</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44426.83559027778</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -10949,10 +10675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:01:08</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44426.83412037037</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11020,10 +10744,8 @@
           <t>5194057017</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:00:35</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44426.83373842593</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11099,10 +10821,8 @@
           <t>5194052016</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:00:02</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44426.83335648148</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11166,10 +10886,8 @@
           <t>5193546881</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:58:39</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44426.83239583333</v>
       </c>
       <c r="I150" t="n">
         <v>2</v>
@@ -11245,10 +10963,8 @@
           <t>5194018619</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:56:41</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44426.8310300926</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11316,10 +11032,8 @@
           <t>5194009157</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:55:53</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44426.83047453704</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11383,10 +11097,8 @@
           <t>5193946505</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:48:30</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44426.82534722222</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11462,10 +11174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:48:25</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44426.82528935185</v>
       </c>
       <c r="I154" t="n">
         <v>10</v>
@@ -11533,10 +11243,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:47:51</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44426.82489583334</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -11596,10 +11304,8 @@
           <t>5193404275</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:46:10</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44426.82372685185</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11663,10 +11369,8 @@
           <t>5193916893</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:45:27</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44426.82322916666</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11744,10 +11448,8 @@
           <t>5193909677</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:45:02</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44426.82293981482</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11825,10 +11527,8 @@
           <t>5193907448</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:44:24</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44426.8225</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11906,10 +11606,8 @@
           <t>5193894850</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:43:38</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44426.82196759259</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -11987,10 +11685,8 @@
           <t>5193404275</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:41:59</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44426.82082175926</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12068,10 +11764,8 @@
           <t>5193872477</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:40:39</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44426.81989583333</v>
       </c>
       <c r="I162" t="n">
         <v>3</v>
@@ -12147,10 +11841,8 @@
           <t>5193105607</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:39:39</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44426.81920138889</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12214,10 +11906,8 @@
           <t>5193853250</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:38:56</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44426.81870370371</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -12289,10 +11979,8 @@
           <t>5193852593</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:38:41</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44426.81853009259</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12376,10 +12064,8 @@
           <t>5193852396</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:38:37</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44426.8184837963</v>
       </c>
       <c r="I166" t="n">
         <v>10</v>
@@ -12455,10 +12141,8 @@
           <t>5193852134</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:38:31</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44426.81841435185</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12534,10 +12218,8 @@
           <t>5193832795</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:36:55</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44426.81730324074</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12605,10 +12287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:36:22</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44426.8169212963</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -12686,10 +12366,8 @@
           <t>5193527537</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:35:20</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44426.8162037037</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -12761,10 +12439,8 @@
           <t>5193825674</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:35:04</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44426.81601851852</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12836,10 +12512,8 @@
           <t>5193787456</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:31:25</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44426.81348379629</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -12907,10 +12581,8 @@
           <t>5193770016</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:28:48</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44426.81166666667</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12982,10 +12654,8 @@
           <t>5193746495</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:26:58</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44426.81039351852</v>
       </c>
       <c r="I174" t="n">
         <v>1</v>
@@ -13053,10 +12723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:26:00</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44426.80972222222</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13124,10 +12792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:24:19</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44426.80855324074</v>
       </c>
       <c r="I176" t="n">
         <v>1</v>
@@ -13191,10 +12857,8 @@
           <t>5193487480</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:23:58</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44426.80831018519</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13270,10 +12934,8 @@
           <t>5193546881</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:23:42</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44426.808125</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
@@ -13337,10 +12999,8 @@
           <t>5193546881</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:23:36</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44426.80805555556</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13404,10 +13064,8 @@
           <t>5193546881</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:22:57</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44426.80760416666</v>
       </c>
       <c r="I180" t="n">
         <v>2</v>
@@ -13475,10 +13133,8 @@
           <t>5193703944</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:22:48</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44426.8075</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
@@ -13554,10 +13210,8 @@
           <t>5193710763</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:22:22</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44426.80719907407</v>
       </c>
       <c r="I182" t="n">
         <v>3</v>
@@ -13625,10 +13279,8 @@
           <t>5193527537</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:19:11</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44426.80498842592</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13696,10 +13348,8 @@
           <t>5193675473</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:18:24</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44426.80444444445</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13768,10 +13418,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:18:10</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44426.80428240741</v>
       </c>
       <c r="I185" t="n">
         <v>1</v>
@@ -13835,10 +13483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:17:38</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44426.80391203704</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13914,10 +13560,8 @@
           <t>5193527537</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:17:23</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44426.80373842592</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -13994,10 +13638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:16:46</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44426.80331018518</v>
       </c>
       <c r="I188" t="n">
         <v>8</v>
@@ -14073,10 +13715,8 @@
           <t>5193105607</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:16:13</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44426.80292824074</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14148,10 +13788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:15:53</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44426.80269675926</v>
       </c>
       <c r="I190" t="n">
         <v>1</v>
@@ -14215,10 +13853,8 @@
           <t>5193645167</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:15:04</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44426.80212962963</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14286,10 +13922,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:14:19</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44426.8016087963</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14365,10 +13999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:13:44</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44426.8012037037</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14444,10 +14076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:13:41</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44426.80116898148</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14507,10 +14137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:10:35</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44426.7990162037</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14587,10 +14215,8 @@
           <t>5193590374</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:09:38</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44426.79835648148</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14666,10 +14292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:09:19</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44426.79813657407</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14741,10 +14365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:09:15</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44426.79809027778</v>
       </c>
       <c r="I198" t="n">
         <v>134</v>
@@ -14812,10 +14434,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:09:08</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44426.79800925926</v>
       </c>
       <c r="I199" t="n">
         <v>1</v>
@@ -14884,10 +14504,8 @@
           <t>5193546881</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:08:55</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44426.79785879629</v>
       </c>
       <c r="I200" t="n">
         <v>7</v>
@@ -14947,10 +14565,8 @@
           <t>5193568264</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:08:01</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44426.79723379629</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15026,10 +14642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:06:47</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44426.79637731481</v>
       </c>
       <c r="I202" t="n">
         <v>8</v>
@@ -15105,10 +14719,8 @@
           <t>5193553947</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:06:40</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44426.7962962963</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15168,10 +14780,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:05:24</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44426.79541666667</v>
       </c>
       <c r="I204" t="n">
         <v>4</v>
@@ -15243,10 +14853,8 @@
           <t>5193546881</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:05:00</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44426.79513888889</v>
       </c>
       <c r="I205" t="n">
         <v>6</v>
@@ -15322,10 +14930,8 @@
           <t>5193537391</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:04:36</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44426.79486111111</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15401,10 +15007,8 @@
           <t>5193527537</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:03:29</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44426.79408564815</v>
       </c>
       <c r="I207" t="n">
         <v>10</v>
@@ -15476,10 +15080,8 @@
           <t>5193105607</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:03:16</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44426.79393518518</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15551,10 +15153,8 @@
           <t>5193522691</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:03:09</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44426.79385416667</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -15618,10 +15218,8 @@
           <t>5193526399</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:03:07</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44426.79383101852</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15685,10 +15283,8 @@
           <t>5193509592</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:02:11</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44426.79318287037</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15765,10 +15361,8 @@
           <t>5193509065</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:02:01</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44426.79306712963</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15846,10 +15440,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:01:47</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44426.7929050926</v>
       </c>
       <c r="I213" t="n">
         <v>2</v>
@@ -15925,10 +15517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:01:27</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44426.79267361111</v>
       </c>
       <c r="I214" t="n">
         <v>6</v>
@@ -15992,10 +15582,8 @@
           <t>5193141030</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:00:47</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44426.79221064815</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16072,10 +15660,8 @@
           <t>5193487480</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:00:43</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44426.79216435185</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16147,10 +15733,8 @@
           <t>5193487480</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:59:07</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44426.79105324074</v>
       </c>
       <c r="I217" t="n">
         <v>2</v>
@@ -16214,10 +15798,8 @@
           <t>5193105607</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:57:16</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44426.78976851852</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16293,10 +15875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:56:32</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44426.78925925926</v>
       </c>
       <c r="I219" t="n">
         <v>1</v>
@@ -16372,10 +15952,8 @@
           <t>5193445933</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:54:24</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44426.78777777778</v>
       </c>
       <c r="I220" t="n">
         <v>2</v>
@@ -16447,10 +16025,8 @@
           <t>5193141030</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:52:51</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44426.78670138889</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16518,10 +16094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:51:54</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44426.78604166667</v>
       </c>
       <c r="I222" t="n">
         <v>1</v>
@@ -16585,10 +16159,8 @@
           <t>5193416706</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:51:26</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44426.78571759259</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16656,10 +16228,8 @@
           <t>5193105607</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:51:19</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44426.78563657407</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16723,10 +16293,8 @@
           <t>5193100609</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:50:57</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44426.78538194444</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
@@ -16790,10 +16358,8 @@
           <t>5193141030</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:50:54</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44426.78534722222</v>
       </c>
       <c r="I226" t="n">
         <v>2</v>
@@ -16870,10 +16436,8 @@
           <t>5193404275</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:50:44</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44426.78523148148</v>
       </c>
       <c r="I227" t="n">
         <v>2</v>
@@ -16941,10 +16505,8 @@
           <t>5193403596</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:50:32</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44426.7850925926</v>
       </c>
       <c r="I228" t="n">
         <v>3</v>
@@ -17020,10 +16582,8 @@
           <t>5193105607</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:49:40</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44426.78449074074</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17099,10 +16659,8 @@
           <t>5193150690</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:48:29</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44426.78366898148</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17170,10 +16728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:48:03</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44426.78336805556</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17249,10 +16805,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:47:12</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44426.78277777778</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17316,10 +16870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:47:03</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44426.78267361111</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17391,10 +16943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:46:52</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44426.78254629629</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17454,10 +17004,8 @@
           <t>5193370702</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:46:40</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44426.78240740741</v>
       </c>
       <c r="I235" t="n">
         <v>6</v>
@@ -17533,10 +17081,8 @@
           <t>5193370236</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:46:31</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44426.78230324074</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17600,10 +17146,8 @@
           <t>5193157619</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:45:53</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44426.78186342592</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17679,10 +17223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:45:07</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44426.78133101852</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17754,10 +17296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:44:48</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44426.78111111111</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17829,10 +17369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:43:50</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44426.78043981481</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17900,10 +17438,8 @@
           <t>5193105607</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:43:28</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44426.78018518518</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17971,10 +17507,8 @@
           <t>5193105607</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:43:26</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44426.78016203704</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18052,10 +17586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:43:10</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44426.77997685185</v>
       </c>
       <c r="I243" t="n">
         <v>7</v>
@@ -18123,10 +17655,8 @@
           <t>5193332709</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:43:05</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44426.77991898148</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18190,10 +17720,8 @@
           <t>5193104750</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:42:25</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44426.77945601852</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18269,10 +17797,8 @@
           <t>5193139476</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:40:10</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44426.77789351852</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18344,10 +17870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:39:50</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44426.77766203704</v>
       </c>
       <c r="I247" t="n">
         <v>9</v>
@@ -18411,10 +17935,8 @@
           <t>5193105607</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:39:44</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44426.7775925926</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18490,10 +18012,8 @@
           <t>5193105607</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:39:36</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44426.7775</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18561,10 +18081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:39:15</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44426.77725694444</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18636,10 +18154,8 @@
           <t>5193300709</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:39:04</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44426.77712962963</v>
       </c>
       <c r="I251" t="n">
         <v>6</v>
@@ -18715,10 +18231,8 @@
           <t>5193295883</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:38:49</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44426.77695601852</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18786,10 +18300,8 @@
           <t>5193139476</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:38:22</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44426.77664351852</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18861,10 +18373,8 @@
           <t>5193288186</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:38:12</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44426.77652777778</v>
       </c>
       <c r="I254" t="n">
         <v>2</v>
@@ -18938,10 +18448,8 @@
           <t>5193105607</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:37:31</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44426.77605324074</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19001,10 +18509,8 @@
           <t>5193116682</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:37:11</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44426.77582175926</v>
       </c>
       <c r="I256" t="n">
         <v>1</v>
@@ -19080,10 +18586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:36:10</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44426.77511574074</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19151,10 +18655,8 @@
           <t>5193262606</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:35:45</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44426.77482638889</v>
       </c>
       <c r="I258" t="n">
         <v>2</v>
@@ -19231,10 +18733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:35:23</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44426.77457175926</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19310,10 +18810,8 @@
           <t>5193230491</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:35:22</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44426.77456018519</v>
       </c>
       <c r="I260" t="n">
         <v>1</v>
@@ -19385,10 +18883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:35:10</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44426.77442129629</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19456,10 +18952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:35:05</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44426.77436342592</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19523,10 +19017,8 @@
           <t>5193210729</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:35:01</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44426.77431712963</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19590,10 +19082,8 @@
           <t>5193253432</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:34:56</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44426.77425925926</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19661,10 +19151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:34:22</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44426.77386574074</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19736,10 +19224,8 @@
           <t>5193104750</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:34:17</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44426.77380787037</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19807,10 +19293,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:34:01</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44426.77362268518</v>
       </c>
       <c r="I267" t="n">
         <v>1</v>
@@ -19874,10 +19358,8 @@
           <t>5193144201</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:33:50</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44426.77349537037</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19949,10 +19431,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:33:22</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44426.7731712963</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20024,10 +19504,8 @@
           <t>5193144201</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:33:16</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44426.77310185185</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20095,10 +19573,8 @@
           <t>5193236542</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:32:35</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44426.77262731481</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20174,10 +19650,8 @@
           <t>5193230491</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:32:18</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44426.77243055555</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20249,10 +19723,8 @@
           <t>5193105607</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:31:46</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44426.77206018518</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20316,10 +19788,8 @@
           <t>5193157619</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:31:22</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44426.77178240741</v>
       </c>
       <c r="I274" t="n">
         <v>1</v>
@@ -20387,10 +19857,8 @@
           <t>5193157619</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:31:16</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44426.77171296296</v>
       </c>
       <c r="I275" t="n">
         <v>1</v>
@@ -20466,10 +19934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:31:07</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44426.7716087963</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20541,10 +20007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:30:41</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44426.77130787037</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20616,10 +20080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:30:38</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44426.77127314815</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20687,10 +20149,8 @@
           <t>5193144201</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:30:13</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44426.7709837963</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20754,10 +20214,8 @@
           <t>5193105607</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:30:13</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44426.7709837963</v>
       </c>
       <c r="I280" t="n">
         <v>1</v>
@@ -20833,10 +20291,8 @@
           <t>5193105607</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:29:53</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44426.77075231481</v>
       </c>
       <c r="I281" t="n">
         <v>2</v>
@@ -20904,10 +20360,8 @@
           <t>5193159113</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:29:34</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44426.7705324074</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -20979,10 +20433,8 @@
           <t>5193210729</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:29:27</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44426.77045138889</v>
       </c>
       <c r="I283" t="n">
         <v>1</v>
@@ -21056,10 +20508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:29:10</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44426.77025462963</v>
       </c>
       <c r="I284" t="n">
         <v>85</v>
@@ -21127,10 +20577,8 @@
           <t>5193200346</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:28:52</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44426.7700462963</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21206,10 +20654,8 @@
           <t>5193105607</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:28:42</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44426.76993055556</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21281,10 +20727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:28:21</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44426.7696875</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21356,10 +20800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:28:17</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44426.7696412037</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21427,10 +20869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:27:48</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44426.76930555556</v>
       </c>
       <c r="I289" t="n">
         <v>4</v>
@@ -21506,10 +20946,8 @@
           <t>5193144201</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:27:47</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44426.76929398148</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21581,10 +21019,8 @@
           <t>5193157619</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:27:40</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44426.76921296296</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21660,10 +21096,8 @@
           <t>5193105607</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:27:38</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44426.76918981481</v>
       </c>
       <c r="I292" t="n">
         <v>1</v>
@@ -21739,10 +21173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:27:38</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44426.76918981481</v>
       </c>
       <c r="I293" t="n">
         <v>1</v>
@@ -21814,10 +21246,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:27:37</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44426.76917824074</v>
       </c>
       <c r="I294" t="n">
         <v>4</v>
@@ -21885,10 +21315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:27:36</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44426.76916666667</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21952,10 +21380,8 @@
           <t>5193190195</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:27:36</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44426.76916666667</v>
       </c>
       <c r="I296" t="n">
         <v>3</v>
@@ -22027,10 +21453,8 @@
           <t>5193144201</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:27:32</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44426.76912037037</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22102,10 +21526,8 @@
           <t>5193144201</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:27:28</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44426.76907407407</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22177,10 +21599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:27:01</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44426.76876157407</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22244,10 +21664,8 @@
           <t>5193105607</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:26:51</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44426.76864583333</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22323,10 +21741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:26:25</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44426.76834490741</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22394,10 +21810,8 @@
           <t>5193172820</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:26:22</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44426.76831018519</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22473,10 +21887,8 @@
           <t>5193169947</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:26:17</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44426.76825231482</v>
       </c>
       <c r="I303" t="n">
         <v>9</v>
@@ -22548,10 +21960,8 @@
           <t>5193144201</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:26:15</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44426.76822916666</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22615,10 +22025,8 @@
           <t>5193144201</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:26:06</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44426.768125</v>
       </c>
       <c r="I305" t="n">
         <v>2</v>
@@ -22694,10 +22102,8 @@
           <t>5193144201</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:25:58</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44426.76803240741</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22765,10 +22171,8 @@
           <t>5193105607</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:25:50</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44426.76793981482</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22840,10 +22244,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:25:50</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44426.76793981482</v>
       </c>
       <c r="I308" t="n">
         <v>50</v>
@@ -22911,10 +22313,8 @@
           <t>5193105607</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:25:45</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44426.76788194444</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22986,10 +22386,8 @@
           <t>5193157619</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:25:41</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44426.76783564815</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23061,10 +22459,8 @@
           <t>5193116682</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:25:39</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44426.7678125</v>
       </c>
       <c r="I311" t="n">
         <v>9</v>
@@ -23132,10 +22528,8 @@
           <t>5193105607</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:25:36</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44426.76777777778</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23211,10 +22605,8 @@
           <t>5193105607</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:25:35</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44426.7677662037</v>
       </c>
       <c r="I313" t="n">
         <v>2</v>
@@ -23290,10 +22682,8 @@
           <t>5193170329</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:25:32</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44426.76773148148</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23365,10 +22755,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:25:20</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44426.76759259259</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23436,10 +22824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:25:19</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44426.76758101852</v>
       </c>
       <c r="I316" t="n">
         <v>2</v>
@@ -23499,10 +22885,8 @@
           <t>5193144201</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:25:12</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44426.7675</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23566,10 +22950,8 @@
           <t>5193159113</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:25:06</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44426.76743055556</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23641,10 +23023,8 @@
           <t>5193139476</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:25:03</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44426.76739583333</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23716,10 +23096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:25:01</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44426.76737268519</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23796,10 +23174,8 @@
           <t>5193105607</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:24:51</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44426.76725694445</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23871,10 +23247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:24:47</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44426.76721064815</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23946,10 +23320,8 @@
           <t>5193157619</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:24:35</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44426.76707175926</v>
       </c>
       <c r="I323" t="n">
         <v>1</v>
@@ -24017,10 +23389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:24:25</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44426.76695601852</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24092,10 +23462,8 @@
           <t>5193105607</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:24:23</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44426.76693287037</v>
       </c>
       <c r="I325" t="n">
         <v>1</v>
@@ -24159,10 +23527,8 @@
           <t>5193153122</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:24:18</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44426.766875</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24243,10 +23609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:24:03</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44426.76670138889</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24314,10 +23678,8 @@
           <t>5193118582</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:23:57</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44426.76663194445</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24385,10 +23747,8 @@
           <t>5193148157</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:23:47</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44426.7665162037</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24460,10 +23820,8 @@
           <t>5193150875</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:23:39</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44426.76642361111</v>
       </c>
       <c r="I330" t="n">
         <v>16</v>
@@ -24535,10 +23893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:23:36</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44426.76638888889</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24614,10 +23970,8 @@
           <t>5193150690</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:23:35</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44426.76637731482</v>
       </c>
       <c r="I332" t="n">
         <v>12</v>
@@ -24686,10 +24040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:23:29</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44426.76630787037</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24757,10 +24109,8 @@
           <t>5193144201</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:23:26</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44426.76627314815</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24832,10 +24182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:23:17</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44426.76616898148</v>
       </c>
       <c r="I335" t="n">
         <v>1</v>
@@ -24903,10 +24251,8 @@
           <t>5193139476</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:23:14</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44426.76613425926</v>
       </c>
       <c r="I336" t="n">
         <v>20</v>
@@ -24978,10 +24324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:23:13</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44426.76612268519</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25057,10 +24401,8 @@
           <t>5193105607</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:23:03</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44426.76600694445</v>
       </c>
       <c r="I338" t="n">
         <v>6</v>
@@ -25136,10 +24478,8 @@
           <t>5193142204</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:22:46</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44426.76581018518</v>
       </c>
       <c r="I339" t="n">
         <v>1</v>
@@ -25211,10 +24551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:22:37</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44426.76570601852</v>
       </c>
       <c r="I340" t="n">
         <v>1</v>
@@ -25290,10 +24628,8 @@
           <t>5193118582</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:22:35</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44426.76568287037</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25361,10 +24697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:22:30</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44426.765625</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25433,10 +24767,8 @@
           <t>5193136977</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:22:30</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44426.765625</v>
       </c>
       <c r="I343" t="n">
         <v>1</v>
@@ -25504,10 +24836,8 @@
           <t>5193141030</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:22:23</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44426.76554398148</v>
       </c>
       <c r="I344" t="n">
         <v>106</v>
@@ -25583,10 +24913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:22:09</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44426.76538194445</v>
       </c>
       <c r="I345" t="n">
         <v>1</v>
@@ -25662,10 +24990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:22:06</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44426.76534722222</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25741,10 +25067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:22:05</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44426.76533564815</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25816,10 +25140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:22:00</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44426.76527777778</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25895,10 +25217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:21:48</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44426.76513888889</v>
       </c>
       <c r="I349" t="n">
         <v>22</v>
@@ -25963,10 +25283,8 @@
           <t>5193123934</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:21:40</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44426.7650462963</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26038,10 +25356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:21:31</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44426.76494212963</v>
       </c>
       <c r="I351" t="n">
         <v>1</v>
@@ -26113,10 +25429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:21:15</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44426.76475694445</v>
       </c>
       <c r="I352" t="n">
         <v>1</v>
@@ -26192,10 +25506,8 @@
           <t>5193105607</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:21:03</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44426.76461805555</v>
       </c>
       <c r="I353" t="n">
         <v>16</v>
@@ -26259,10 +25571,8 @@
           <t>5193119278</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:21:00</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44426.76458333333</v>
       </c>
       <c r="I354" t="n">
         <v>13</v>
@@ -26338,10 +25648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:20:59</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44426.76457175926</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26405,10 +25713,8 @@
           <t>5193121496</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:20:51</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44426.76447916667</v>
       </c>
       <c r="I356" t="n">
         <v>3</v>
@@ -26484,10 +25790,8 @@
           <t>5193118582</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:20:46</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44426.7644212963</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26560,10 +25864,8 @@
           <t>5193118484</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:20:45</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44426.76440972222</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26635,10 +25937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:20:35</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44426.76429398148</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26706,10 +26006,8 @@
           <t>5193120227</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:20:25</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44426.76417824074</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26773,10 +26071,8 @@
           <t>5193120049</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:20:21</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44426.76413194444</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26844,10 +26140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:20:16</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44426.76407407408</v>
       </c>
       <c r="I362" t="n">
         <v>1</v>
@@ -26919,10 +26213,8 @@
           <t>5193114057</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:20:14</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44426.76405092593</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26994,10 +26286,8 @@
           <t>5193116682</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:20:09</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44426.76399305555</v>
       </c>
       <c r="I364" t="n">
         <v>12</v>
@@ -27073,10 +26363,8 @@
           <t>5193105607</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:20:03</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44426.76392361111</v>
       </c>
       <c r="I365" t="n">
         <v>66</v>
@@ -27136,10 +26424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:19:47</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44426.76373842593</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27203,10 +26489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:19:40</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44426.76365740741</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27274,10 +26558,8 @@
           <t>5193104750</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:19:33</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44426.76357638889</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27341,10 +26623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:19:31</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44426.76355324074</v>
       </c>
       <c r="I369" t="n">
         <v>1</v>
@@ -27408,10 +26688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:19:28</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44426.76351851852</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27475,10 +26753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:19:26</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44426.76349537037</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27550,10 +26826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:19:21</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44426.7634375</v>
       </c>
       <c r="I372" t="n">
         <v>1</v>
@@ -27629,10 +26903,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:19:20</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44426.76342592593</v>
       </c>
       <c r="I373" t="n">
         <v>9</v>
@@ -27708,10 +26980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:19:17</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44426.76339120371</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27783,10 +27053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:19:12</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44426.76333333334</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27850,10 +27118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:19:12</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44426.76333333334</v>
       </c>
       <c r="I376" t="n">
         <v>1</v>
@@ -27925,10 +27191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:19:06</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44426.76326388889</v>
       </c>
       <c r="I377" t="n">
         <v>35</v>
@@ -27992,10 +27256,8 @@
           <t>5193099632</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:18:57</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44426.76315972222</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28067,10 +27329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:18:56</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44426.76314814815</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28138,10 +27398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:18:54</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44426.763125</v>
       </c>
       <c r="I380" t="n">
         <v>1</v>
@@ -28217,10 +27475,8 @@
           <t>5193105607</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:18:50</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44426.76307870371</v>
       </c>
       <c r="I381" t="n">
         <v>192</v>
@@ -28296,10 +27552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:18:49</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44426.76306712963</v>
       </c>
       <c r="I382" t="n">
         <v>4</v>
@@ -28375,10 +27629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:18:49</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44426.76306712963</v>
       </c>
       <c r="I383" t="n">
         <v>1</v>
@@ -28450,10 +27702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:18:49</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44426.76306712963</v>
       </c>
       <c r="I384" t="n">
         <v>45</v>
@@ -28513,10 +27763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:18:47</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44426.76304398148</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28592,10 +27840,8 @@
           <t>5193102090</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:18:43</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44426.76299768518</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28659,10 +27905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:18:41</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44426.76297453704</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28738,10 +27982,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:18:35</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44426.76290509259</v>
       </c>
       <c r="I388" t="n">
         <v>163</v>
@@ -28805,10 +28047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:18:27</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44426.7628125</v>
       </c>
       <c r="I389" t="n">
         <v>264</v>
@@ -28876,10 +28116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:18:25</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44426.76278935185</v>
       </c>
       <c r="I390" t="n">
         <v>1</v>
@@ -28951,10 +28189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:18:25</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44426.76278935185</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29030,10 +28266,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:18:24</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44426.76277777777</v>
       </c>
       <c r="I392" t="n">
         <v>921</v>
@@ -29109,10 +28343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:18:21</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44426.76274305556</v>
       </c>
       <c r="I393" t="n">
         <v>1</v>
@@ -29180,10 +28412,8 @@
           <t>5193100609</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:18:15</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44426.76267361111</v>
       </c>
       <c r="I394" t="n">
         <v>5</v>
@@ -29259,10 +28489,8 @@
           <t>5193100366</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:18:11</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44426.76262731481</v>
       </c>
       <c r="I395" t="n">
         <v>1</v>
@@ -29326,10 +28554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:18:08</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44426.76259259259</v>
       </c>
       <c r="I396" t="n">
         <v>1</v>
@@ -29405,10 +28631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:18:05</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44426.76255787037</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29476,10 +28700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:18:03</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44426.76253472222</v>
       </c>
       <c r="I398" t="n">
         <v>7</v>
@@ -29547,10 +28769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:18:00</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44426.7625</v>
       </c>
       <c r="I399" t="n">
         <v>54</v>
@@ -29614,10 +28834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:18:00</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44426.7625</v>
       </c>
       <c r="I400" t="n">
         <v>1</v>
@@ -29685,10 +28903,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:17:58</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44426.76247685185</v>
       </c>
       <c r="I401" t="n">
         <v>509</v>
@@ -29764,10 +28980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:17:52</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44426.7624074074</v>
       </c>
       <c r="I402" t="n">
         <v>1</v>
@@ -29839,10 +29053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:17:50</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44426.76238425926</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29918,10 +29130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:17:50</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44426.76238425926</v>
       </c>
       <c r="I404" t="n">
         <v>8</v>
@@ -29997,10 +29207,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:17:47</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44426.76234953704</v>
       </c>
       <c r="I405" t="n">
         <v>1</v>
@@ -30072,10 +29280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:17:45</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44426.76232638889</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
